--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/StdParameters_model#LR_name#FC+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/StdParameters_model#LR_name#FC+Dem.xlsx
@@ -438,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -478,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -486,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -502,7 +502,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -510,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -518,7 +518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -526,7 +526,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -542,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -550,7 +550,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -566,7 +566,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -574,7 +574,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.05</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -582,7 +582,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -590,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -598,7 +598,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -606,7 +606,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -622,7 +622,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -638,7 +638,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -646,7 +646,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -654,7 +654,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -670,7 +670,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -686,7 +686,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -694,7 +694,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -702,7 +702,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -726,7 +726,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -734,7 +734,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -742,7 +742,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -750,7 +750,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -758,7 +758,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -766,7 +766,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -774,7 +774,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -782,7 +782,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -790,7 +790,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -798,7 +798,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -806,7 +806,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -814,7 +814,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -830,7 +830,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -838,7 +838,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -854,7 +854,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.0001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -862,7 +862,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -870,7 +870,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -886,7 +886,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.01</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -894,7 +894,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -910,7 +910,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -918,7 +918,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -934,7 +934,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -942,7 +942,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -958,7 +958,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -966,7 +966,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -974,7 +974,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -982,7 +982,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -998,7 +998,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.0001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>
